--- a/1945kanji thông dung.xlsx
+++ b/1945kanji thông dung.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red\Downloads\Japanese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B82173B-0ACA-474C-94EF-365F507FC5B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4920" xr2:uid="{D7886F90-03B5-4186-A46C-BDCA6DC7DFD3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18563,7 +18562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -18698,13 +18697,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -19019,16 +19018,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282C32D0-A999-4E4E-8D13-DCCF0696B805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A994" workbookViewId="0">
-      <selection activeCell="I994" sqref="I994"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="72.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="72.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19041,8 +19040,11 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="10" t="s">
+        <v>5528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -19056,7 +19058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -19070,7 +19072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -19084,7 +19086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -19098,7 +19100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -19112,7 +19114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -19126,7 +19128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -19140,7 +19142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -19154,7 +19156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -19168,7 +19170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -19182,7 +19184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -19196,7 +19198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -19210,7 +19212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -19224,7 +19226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -19238,7 +19240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -32910,7 +32912,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="993" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A993" s="2" t="s">
         <v>3116</v>
       </c>
@@ -32924,7 +32926,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="994" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A994" s="2" t="s">
         <v>3119</v>
       </c>
@@ -32937,11 +32939,8 @@
       <c r="D994" s="3" t="s">
         <v>3121</v>
       </c>
-      <c r="I994" s="12" t="s">
-        <v>5528</v>
-      </c>
-    </row>
-    <row r="995" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="995" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A995" s="2" t="s">
         <v>3122</v>
       </c>
@@ -32955,7 +32954,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="996" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A996" s="2" t="s">
         <v>3125</v>
       </c>
@@ -32969,7 +32968,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="997" spans="1:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A997" s="2" t="s">
         <v>3127</v>
       </c>
@@ -32983,7 +32982,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="998" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A998" s="2" t="s">
         <v>3129</v>
       </c>
@@ -32997,7 +32996,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="999" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A999" s="2" t="s">
         <v>3131</v>
       </c>
@@ -33011,7 +33010,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="1000" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="2" t="s">
         <v>3133</v>
       </c>
@@ -33025,7 +33024,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="1001" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="2" t="s">
         <v>3136</v>
       </c>
@@ -33039,7 +33038,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="1002" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="2" t="s">
         <v>3138</v>
       </c>
@@ -33053,7 +33052,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="1003" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="2" t="s">
         <v>3140</v>
       </c>
@@ -33067,7 +33066,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="1004" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="2" t="s">
         <v>3143</v>
       </c>
@@ -33081,7 +33080,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="1005" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="2" t="s">
         <v>3146</v>
       </c>
@@ -33095,7 +33094,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="1006" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="2" t="s">
         <v>3148</v>
       </c>
@@ -33109,7 +33108,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="2" t="s">
         <v>3151</v>
       </c>
@@ -33123,7 +33122,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="1008" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="2" t="s">
         <v>3154</v>
       </c>
@@ -46244,16 +46243,16 @@
       </c>
     </row>
     <row r="1946" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1946" s="10"/>
-      <c r="B1946" s="10"/>
-      <c r="C1946" s="10"/>
-      <c r="D1946" s="10"/>
+      <c r="A1946" s="11"/>
+      <c r="B1946" s="11"/>
+      <c r="C1946" s="11"/>
+      <c r="D1946" s="11"/>
     </row>
     <row r="1947" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1947" s="11"/>
-      <c r="B1947" s="11"/>
-      <c r="C1947" s="11"/>
-      <c r="D1947" s="11"/>
+      <c r="A1947" s="12"/>
+      <c r="B1947" s="12"/>
+      <c r="C1947" s="12"/>
+      <c r="D1947" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -46261,7 +46260,7 @@
     <mergeCell ref="A1947:D1947"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I994" r:id="rId1" xr:uid="{FD636A9F-AC23-40CB-BDBE-78509D514668}"/>
+    <hyperlink ref="I1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/1945kanji thông dung.xlsx
+++ b/1945kanji thông dung.xlsx
@@ -19101,8 +19101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1947"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1300" workbookViewId="0">
-      <selection activeCell="A1301" activeCellId="3" sqref="A1297 A1297:XFD1297 A1300:XFD1300 A1301:XFD1301"/>
+    <sheetView tabSelected="1" topLeftCell="A1395" workbookViewId="0">
+      <selection activeCell="A1398" sqref="A1398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="61.5" x14ac:dyDescent="0.85"/>
@@ -37320,59 +37320,59 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="1302" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1302" s="16" t="s">
+    <row r="1302" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1302" s="17" t="s">
         <v>3938</v>
       </c>
-      <c r="B1302" s="4" t="s">
+      <c r="B1302" s="6" t="s">
         <v>3939</v>
       </c>
-      <c r="C1302" s="5" t="s">
+      <c r="C1302" s="7" t="s">
         <v>2522</v>
       </c>
-      <c r="D1302" s="5" t="s">
+      <c r="D1302" s="7" t="s">
         <v>3940</v>
       </c>
     </row>
-    <row r="1303" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1303" s="16" t="s">
+    <row r="1303" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1303" s="17" t="s">
         <v>3941</v>
       </c>
-      <c r="B1303" s="4" t="s">
+      <c r="B1303" s="6" t="s">
         <v>3942</v>
       </c>
-      <c r="C1303" s="5" t="s">
+      <c r="C1303" s="7" t="s">
         <v>2896</v>
       </c>
-      <c r="D1303" s="5" t="s">
+      <c r="D1303" s="7" t="s">
         <v>3943</v>
       </c>
     </row>
-    <row r="1304" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1304" s="16" t="s">
+    <row r="1304" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1304" s="17" t="s">
         <v>3944</v>
       </c>
-      <c r="B1304" s="4" t="s">
+      <c r="B1304" s="6" t="s">
         <v>1645</v>
       </c>
-      <c r="C1304" s="5" t="s">
+      <c r="C1304" s="7" t="s">
         <v>3945</v>
       </c>
-      <c r="D1304" s="5" t="s">
+      <c r="D1304" s="7" t="s">
         <v>3946</v>
       </c>
     </row>
-    <row r="1305" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1305" s="16" t="s">
+    <row r="1305" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1305" s="17" t="s">
         <v>3947</v>
       </c>
-      <c r="B1305" s="4" t="s">
+      <c r="B1305" s="6" t="s">
         <v>3948</v>
       </c>
-      <c r="C1305" s="5" t="s">
+      <c r="C1305" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D1305" s="5" t="s">
+      <c r="D1305" s="7" t="s">
         <v>3949</v>
       </c>
     </row>
@@ -37390,17 +37390,17 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="1307" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1307" s="16" t="s">
+    <row r="1307" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1307" s="17" t="s">
         <v>3953</v>
       </c>
-      <c r="B1307" s="4" t="s">
+      <c r="B1307" s="6" t="s">
         <v>3954</v>
       </c>
-      <c r="C1307" s="5" t="s">
+      <c r="C1307" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D1307" s="5" t="s">
+      <c r="D1307" s="7" t="s">
         <v>3955</v>
       </c>
     </row>
@@ -37446,17 +37446,17 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="1311" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1311" s="16" t="s">
+    <row r="1311" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1311" s="17" t="s">
         <v>3963</v>
       </c>
-      <c r="B1311" s="4" t="s">
+      <c r="B1311" s="6" t="s">
         <v>3401</v>
       </c>
-      <c r="C1311" s="5" t="s">
+      <c r="C1311" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="D1311" s="5" t="s">
+      <c r="D1311" s="7" t="s">
         <v>3964</v>
       </c>
     </row>
@@ -37488,45 +37488,45 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="1314" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1314" s="16" t="s">
+    <row r="1314" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1314" s="17" t="s">
         <v>3970</v>
       </c>
-      <c r="B1314" s="4" t="s">
+      <c r="B1314" s="6" t="s">
         <v>1665</v>
       </c>
-      <c r="C1314" s="5" t="s">
+      <c r="C1314" s="7" t="s">
         <v>1513</v>
       </c>
-      <c r="D1314" s="5" t="s">
+      <c r="D1314" s="7" t="s">
         <v>3971</v>
       </c>
     </row>
-    <row r="1315" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1315" s="16" t="s">
+    <row r="1315" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1315" s="17" t="s">
         <v>3972</v>
       </c>
-      <c r="B1315" s="4" t="s">
+      <c r="B1315" s="6" t="s">
         <v>3973</v>
       </c>
-      <c r="C1315" s="5" t="s">
+      <c r="C1315" s="7" t="s">
         <v>2846</v>
       </c>
-      <c r="D1315" s="5" t="s">
+      <c r="D1315" s="7" t="s">
         <v>2659</v>
       </c>
     </row>
-    <row r="1316" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1316" s="16" t="s">
+    <row r="1316" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1316" s="17" t="s">
         <v>3974</v>
       </c>
-      <c r="B1316" s="4" t="s">
+      <c r="B1316" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C1316" s="5" t="s">
+      <c r="C1316" s="7" t="s">
         <v>1999</v>
       </c>
-      <c r="D1316" s="5" t="s">
+      <c r="D1316" s="7" t="s">
         <v>3975</v>
       </c>
     </row>
@@ -37544,31 +37544,31 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="1318" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1318" s="16" t="s">
+    <row r="1318" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1318" s="17" t="s">
         <v>3979</v>
       </c>
-      <c r="B1318" s="4" t="s">
+      <c r="B1318" s="6" t="s">
         <v>3980</v>
       </c>
-      <c r="C1318" s="5" t="s">
+      <c r="C1318" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="D1318" s="5" t="s">
+      <c r="D1318" s="7" t="s">
         <v>3981</v>
       </c>
     </row>
-    <row r="1319" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1319" s="16" t="s">
+    <row r="1319" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1319" s="17" t="s">
         <v>3982</v>
       </c>
-      <c r="B1319" s="4" t="s">
+      <c r="B1319" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C1319" s="5" t="s">
+      <c r="C1319" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D1319" s="5" t="s">
+      <c r="D1319" s="7" t="s">
         <v>3983</v>
       </c>
     </row>
@@ -37586,17 +37586,17 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="1321" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1321" s="16" t="s">
+    <row r="1321" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1321" s="17" t="s">
         <v>3987</v>
       </c>
-      <c r="B1321" s="4" t="s">
+      <c r="B1321" s="6" t="s">
         <v>2590</v>
       </c>
-      <c r="C1321" s="5" t="s">
+      <c r="C1321" s="7" t="s">
         <v>1057</v>
       </c>
-      <c r="D1321" s="5" t="s">
+      <c r="D1321" s="7" t="s">
         <v>3988</v>
       </c>
     </row>
@@ -37628,31 +37628,31 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="1324" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1324" s="16" t="s">
+    <row r="1324" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1324" s="17" t="s">
         <v>3995</v>
       </c>
-      <c r="B1324" s="4" t="s">
+      <c r="B1324" s="6" t="s">
         <v>3996</v>
       </c>
-      <c r="C1324" s="5" t="s">
+      <c r="C1324" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D1324" s="5" t="s">
+      <c r="D1324" s="7" t="s">
         <v>3997</v>
       </c>
     </row>
-    <row r="1325" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1325" s="16" t="s">
+    <row r="1325" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1325" s="17" t="s">
         <v>3998</v>
       </c>
-      <c r="B1325" s="4" t="s">
+      <c r="B1325" s="6" t="s">
         <v>3999</v>
       </c>
-      <c r="C1325" s="5" t="s">
+      <c r="C1325" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D1325" s="5" t="s">
+      <c r="D1325" s="7" t="s">
         <v>4000</v>
       </c>
     </row>
@@ -37670,73 +37670,73 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="1327" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1327" s="16" t="s">
+    <row r="1327" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1327" s="17" t="s">
         <v>4004</v>
       </c>
-      <c r="B1327" s="4" t="s">
+      <c r="B1327" s="6" t="s">
         <v>3323</v>
       </c>
-      <c r="C1327" s="5" t="s">
+      <c r="C1327" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D1327" s="5" t="s">
+      <c r="D1327" s="7" t="s">
         <v>4005</v>
       </c>
     </row>
-    <row r="1328" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1328" s="16" t="s">
+    <row r="1328" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1328" s="17" t="s">
         <v>4006</v>
       </c>
-      <c r="B1328" s="4" t="s">
+      <c r="B1328" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C1328" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1328" s="5" t="s">
+      <c r="C1328" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1328" s="7" t="s">
         <v>4007</v>
       </c>
     </row>
-    <row r="1329" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1329" s="16" t="s">
+    <row r="1329" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1329" s="17" t="s">
         <v>4008</v>
       </c>
-      <c r="B1329" s="4" t="s">
+      <c r="B1329" s="6" t="s">
         <v>4009</v>
       </c>
-      <c r="C1329" s="5" t="s">
+      <c r="C1329" s="7" t="s">
         <v>1386</v>
       </c>
-      <c r="D1329" s="5" t="s">
+      <c r="D1329" s="7" t="s">
         <v>4010</v>
       </c>
     </row>
-    <row r="1330" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1330" s="16" t="s">
+    <row r="1330" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1330" s="17" t="s">
         <v>4011</v>
       </c>
-      <c r="B1330" s="4" t="s">
+      <c r="B1330" s="6" t="s">
         <v>4012</v>
       </c>
-      <c r="C1330" s="5" t="s">
+      <c r="C1330" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D1330" s="5" t="s">
+      <c r="D1330" s="7" t="s">
         <v>4013</v>
       </c>
     </row>
-    <row r="1331" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1331" s="16" t="s">
+    <row r="1331" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1331" s="17" t="s">
         <v>4014</v>
       </c>
-      <c r="B1331" s="4" t="s">
+      <c r="B1331" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C1331" s="5" t="s">
+      <c r="C1331" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="D1331" s="5" t="s">
+      <c r="D1331" s="7" t="s">
         <v>4015</v>
       </c>
     </row>
@@ -37754,951 +37754,951 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="1333" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1333" s="16" t="s">
+    <row r="1333" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1333" s="17" t="s">
         <v>4018</v>
       </c>
-      <c r="B1333" s="4" t="s">
+      <c r="B1333" s="6" t="s">
         <v>3123</v>
       </c>
-      <c r="C1333" s="5" t="s">
+      <c r="C1333" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="D1333" s="5" t="s">
+      <c r="D1333" s="7" t="s">
         <v>4019</v>
       </c>
     </row>
-    <row r="1334" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1334" s="16" t="s">
+    <row r="1334" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1334" s="17" t="s">
         <v>4020</v>
       </c>
-      <c r="B1334" s="4" t="s">
+      <c r="B1334" s="6" t="s">
         <v>4021</v>
       </c>
-      <c r="C1334" s="5" t="s">
+      <c r="C1334" s="7" t="s">
         <v>4022</v>
       </c>
-      <c r="D1334" s="5" t="s">
+      <c r="D1334" s="7" t="s">
         <v>3833</v>
       </c>
     </row>
-    <row r="1335" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1335" s="16" t="s">
+    <row r="1335" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1335" s="17" t="s">
         <v>4023</v>
       </c>
-      <c r="B1335" s="4" t="s">
+      <c r="B1335" s="6" t="s">
         <v>4024</v>
       </c>
-      <c r="C1335" s="5" t="s">
+      <c r="C1335" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D1335" s="5" t="s">
+      <c r="D1335" s="7" t="s">
         <v>4025</v>
       </c>
     </row>
-    <row r="1336" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1336" s="16" t="s">
+    <row r="1336" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1336" s="17" t="s">
         <v>4026</v>
       </c>
-      <c r="B1336" s="4" t="s">
+      <c r="B1336" s="6" t="s">
         <v>4027</v>
       </c>
-      <c r="C1336" s="5" t="s">
+      <c r="C1336" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D1336" s="5" t="s">
+      <c r="D1336" s="7" t="s">
         <v>4028</v>
       </c>
     </row>
-    <row r="1337" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1337" s="16" t="s">
+    <row r="1337" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1337" s="17" t="s">
         <v>4029</v>
       </c>
-      <c r="B1337" s="4" t="s">
+      <c r="B1337" s="6" t="s">
         <v>4030</v>
       </c>
-      <c r="C1337" s="5" t="s">
+      <c r="C1337" s="7" t="s">
         <v>4031</v>
       </c>
-      <c r="D1337" s="5" t="s">
+      <c r="D1337" s="7" t="s">
         <v>4032</v>
       </c>
     </row>
-    <row r="1338" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1338" s="16" t="s">
+    <row r="1338" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1338" s="17" t="s">
         <v>4033</v>
       </c>
-      <c r="B1338" s="4" t="s">
+      <c r="B1338" s="6" t="s">
         <v>4034</v>
       </c>
-      <c r="C1338" s="5" t="s">
+      <c r="C1338" s="7" t="s">
         <v>2522</v>
       </c>
-      <c r="D1338" s="5" t="s">
+      <c r="D1338" s="7" t="s">
         <v>4035</v>
       </c>
     </row>
-    <row r="1339" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1339" s="16" t="s">
+    <row r="1339" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1339" s="17" t="s">
         <v>4036</v>
       </c>
-      <c r="B1339" s="4" t="s">
+      <c r="B1339" s="6" t="s">
         <v>4037</v>
       </c>
-      <c r="C1339" s="5" t="s">
+      <c r="C1339" s="7" t="s">
         <v>1839</v>
       </c>
-      <c r="D1339" s="5" t="s">
+      <c r="D1339" s="7" t="s">
         <v>4038</v>
       </c>
     </row>
-    <row r="1340" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1340" s="16" t="s">
+    <row r="1340" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1340" s="17" t="s">
         <v>4039</v>
       </c>
-      <c r="B1340" s="4" t="s">
+      <c r="B1340" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C1340" s="5" t="s">
+      <c r="C1340" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D1340" s="5" t="s">
+      <c r="D1340" s="7" t="s">
         <v>4040</v>
       </c>
     </row>
-    <row r="1341" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1341" s="16" t="s">
+    <row r="1341" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1341" s="17" t="s">
         <v>4041</v>
       </c>
-      <c r="B1341" s="4" t="s">
+      <c r="B1341" s="6" t="s">
         <v>4042</v>
       </c>
-      <c r="C1341" s="5" t="s">
+      <c r="C1341" s="7" t="s">
         <v>4043</v>
       </c>
-      <c r="D1341" s="5" t="s">
+      <c r="D1341" s="7" t="s">
         <v>4044</v>
       </c>
     </row>
-    <row r="1342" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1342" s="16" t="s">
+    <row r="1342" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1342" s="17" t="s">
         <v>4045</v>
       </c>
-      <c r="B1342" s="4" t="s">
+      <c r="B1342" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C1342" s="5" t="s">
+      <c r="C1342" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D1342" s="5" t="s">
+      <c r="D1342" s="7" t="s">
         <v>4046</v>
       </c>
     </row>
-    <row r="1343" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1343" s="16" t="s">
+    <row r="1343" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1343" s="17" t="s">
         <v>4047</v>
       </c>
-      <c r="B1343" s="4" t="s">
+      <c r="B1343" s="6" t="s">
         <v>4048</v>
       </c>
-      <c r="C1343" s="5" t="s">
+      <c r="C1343" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="D1343" s="5" t="s">
+      <c r="D1343" s="7" t="s">
         <v>4049</v>
       </c>
     </row>
-    <row r="1344" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1344" s="16" t="s">
+    <row r="1344" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1344" s="17" t="s">
         <v>4050</v>
       </c>
-      <c r="B1344" s="4" t="s">
+      <c r="B1344" s="6" t="s">
         <v>4051</v>
       </c>
-      <c r="C1344" s="5" t="s">
+      <c r="C1344" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="D1344" s="5" t="s">
+      <c r="D1344" s="7" t="s">
         <v>4052</v>
       </c>
     </row>
-    <row r="1345" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1345" s="16" t="s">
+    <row r="1345" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1345" s="17" t="s">
         <v>4053</v>
       </c>
-      <c r="B1345" s="4" t="s">
+      <c r="B1345" s="6" t="s">
         <v>2858</v>
       </c>
-      <c r="C1345" s="5" t="s">
+      <c r="C1345" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D1345" s="5" t="s">
+      <c r="D1345" s="7" t="s">
         <v>4054</v>
       </c>
     </row>
-    <row r="1346" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1346" s="16" t="s">
+    <row r="1346" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1346" s="17" t="s">
         <v>4055</v>
       </c>
-      <c r="B1346" s="4" t="s">
+      <c r="B1346" s="6" t="s">
         <v>1875</v>
       </c>
-      <c r="C1346" s="5" t="s">
+      <c r="C1346" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D1346" s="5" t="s">
+      <c r="D1346" s="7" t="s">
         <v>4056</v>
       </c>
     </row>
-    <row r="1347" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1347" s="16" t="s">
+    <row r="1347" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1347" s="17" t="s">
         <v>4057</v>
       </c>
-      <c r="B1347" s="4" t="s">
+      <c r="B1347" s="6" t="s">
         <v>4058</v>
       </c>
-      <c r="C1347" s="5" t="s">
+      <c r="C1347" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D1347" s="5" t="s">
+      <c r="D1347" s="7" t="s">
         <v>3820</v>
       </c>
     </row>
-    <row r="1348" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1348" s="16" t="s">
+    <row r="1348" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1348" s="17" t="s">
         <v>4059</v>
       </c>
-      <c r="B1348" s="4" t="s">
+      <c r="B1348" s="6" t="s">
         <v>4060</v>
       </c>
-      <c r="C1348" s="5" t="s">
+      <c r="C1348" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D1348" s="5" t="s">
+      <c r="D1348" s="7" t="s">
         <v>4061</v>
       </c>
     </row>
-    <row r="1349" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1349" s="16" t="s">
+    <row r="1349" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1349" s="17" t="s">
         <v>4062</v>
       </c>
-      <c r="B1349" s="4" t="s">
+      <c r="B1349" s="6" t="s">
         <v>4063</v>
       </c>
-      <c r="C1349" s="5" t="s">
+      <c r="C1349" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D1349" s="5" t="s">
+      <c r="D1349" s="7" t="s">
         <v>4064</v>
       </c>
     </row>
-    <row r="1350" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1350" s="16" t="s">
+    <row r="1350" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1350" s="17" t="s">
         <v>4065</v>
       </c>
-      <c r="B1350" s="4" t="s">
+      <c r="B1350" s="6" t="s">
         <v>4066</v>
       </c>
-      <c r="C1350" s="5" t="s">
+      <c r="C1350" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D1350" s="5" t="s">
+      <c r="D1350" s="7" t="s">
         <v>4067</v>
       </c>
     </row>
-    <row r="1351" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1351" s="16" t="s">
+    <row r="1351" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1351" s="17" t="s">
         <v>4068</v>
       </c>
-      <c r="B1351" s="4" t="s">
+      <c r="B1351" s="6" t="s">
         <v>4069</v>
       </c>
-      <c r="C1351" s="5" t="s">
+      <c r="C1351" s="7" t="s">
         <v>4070</v>
       </c>
-      <c r="D1351" s="5" t="s">
+      <c r="D1351" s="7" t="s">
         <v>4071</v>
       </c>
     </row>
-    <row r="1352" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1352" s="16" t="s">
+    <row r="1352" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1352" s="17" t="s">
         <v>4072</v>
       </c>
-      <c r="B1352" s="4" t="s">
+      <c r="B1352" s="6" t="s">
         <v>4073</v>
       </c>
-      <c r="C1352" s="5" t="s">
+      <c r="C1352" s="7" t="s">
         <v>1265</v>
       </c>
-      <c r="D1352" s="5" t="s">
+      <c r="D1352" s="7" t="s">
         <v>4074</v>
       </c>
     </row>
-    <row r="1353" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1353" s="16" t="s">
+    <row r="1353" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1353" s="17" t="s">
         <v>4075</v>
       </c>
-      <c r="B1353" s="4" t="s">
+      <c r="B1353" s="6" t="s">
         <v>4076</v>
       </c>
-      <c r="C1353" s="5" t="s">
+      <c r="C1353" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="D1353" s="5" t="s">
+      <c r="D1353" s="7" t="s">
         <v>4077</v>
       </c>
     </row>
-    <row r="1354" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1354" s="16" t="s">
+    <row r="1354" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1354" s="17" t="s">
         <v>4078</v>
       </c>
-      <c r="B1354" s="4" t="s">
+      <c r="B1354" s="6" t="s">
         <v>4079</v>
       </c>
-      <c r="C1354" s="5" t="s">
+      <c r="C1354" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D1354" s="5" t="s">
+      <c r="D1354" s="7" t="s">
         <v>4080</v>
       </c>
     </row>
-    <row r="1355" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1355" s="16" t="s">
+    <row r="1355" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1355" s="17" t="s">
         <v>4081</v>
       </c>
-      <c r="B1355" s="4" t="s">
+      <c r="B1355" s="6" t="s">
         <v>4082</v>
       </c>
-      <c r="C1355" s="5" t="s">
+      <c r="C1355" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="D1355" s="5" t="s">
+      <c r="D1355" s="7" t="s">
         <v>4083</v>
       </c>
     </row>
-    <row r="1356" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1356" s="16" t="s">
+    <row r="1356" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1356" s="17" t="s">
         <v>4084</v>
       </c>
-      <c r="B1356" s="4" t="s">
+      <c r="B1356" s="6" t="s">
         <v>4085</v>
       </c>
-      <c r="C1356" s="5" t="s">
+      <c r="C1356" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D1356" s="5" t="s">
+      <c r="D1356" s="7" t="s">
         <v>4086</v>
       </c>
     </row>
-    <row r="1357" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1357" s="16" t="s">
+    <row r="1357" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1357" s="17" t="s">
         <v>4087</v>
       </c>
-      <c r="B1357" s="4" t="s">
+      <c r="B1357" s="6" t="s">
         <v>3341</v>
       </c>
-      <c r="C1357" s="5" t="s">
+      <c r="C1357" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D1357" s="5" t="s">
+      <c r="D1357" s="7" t="s">
         <v>4088</v>
       </c>
     </row>
-    <row r="1358" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1358" s="16" t="s">
+    <row r="1358" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1358" s="17" t="s">
         <v>4089</v>
       </c>
-      <c r="B1358" s="4" t="s">
+      <c r="B1358" s="6" t="s">
         <v>4090</v>
       </c>
-      <c r="C1358" s="5" t="s">
+      <c r="C1358" s="7" t="s">
         <v>4091</v>
       </c>
-      <c r="D1358" s="5" t="s">
+      <c r="D1358" s="7" t="s">
         <v>4092</v>
       </c>
     </row>
-    <row r="1359" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1359" s="16" t="s">
+    <row r="1359" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1359" s="17" t="s">
         <v>4093</v>
       </c>
-      <c r="B1359" s="4" t="s">
+      <c r="B1359" s="6" t="s">
         <v>4094</v>
       </c>
-      <c r="C1359" s="5" t="s">
+      <c r="C1359" s="7" t="s">
         <v>4095</v>
       </c>
-      <c r="D1359" s="5" t="s">
+      <c r="D1359" s="7" t="s">
         <v>4096</v>
       </c>
     </row>
-    <row r="1360" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1360" s="16" t="s">
+    <row r="1360" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1360" s="17" t="s">
         <v>4097</v>
       </c>
-      <c r="B1360" s="4" t="s">
+      <c r="B1360" s="6" t="s">
         <v>4098</v>
       </c>
-      <c r="C1360" s="5" t="s">
+      <c r="C1360" s="7" t="s">
         <v>1376</v>
       </c>
-      <c r="D1360" s="5" t="s">
+      <c r="D1360" s="7" t="s">
         <v>4099</v>
       </c>
     </row>
-    <row r="1361" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1361" s="16" t="s">
+    <row r="1361" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1361" s="17" t="s">
         <v>4100</v>
       </c>
-      <c r="B1361" s="4" t="s">
+      <c r="B1361" s="6" t="s">
         <v>1552</v>
       </c>
-      <c r="C1361" s="5" t="s">
+      <c r="C1361" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D1361" s="5" t="s">
+      <c r="D1361" s="7" t="s">
         <v>4101</v>
       </c>
     </row>
-    <row r="1362" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1362" s="16" t="s">
+    <row r="1362" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1362" s="17" t="s">
         <v>4102</v>
       </c>
-      <c r="B1362" s="4" t="s">
+      <c r="B1362" s="6" t="s">
         <v>4103</v>
       </c>
-      <c r="C1362" s="5" t="s">
+      <c r="C1362" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D1362" s="5" t="s">
+      <c r="D1362" s="7" t="s">
         <v>4104</v>
       </c>
     </row>
-    <row r="1363" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1363" s="16" t="s">
+    <row r="1363" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1363" s="17" t="s">
         <v>4105</v>
       </c>
-      <c r="B1363" s="4" t="s">
+      <c r="B1363" s="6" t="s">
         <v>4106</v>
       </c>
-      <c r="C1363" s="5" t="s">
+      <c r="C1363" s="7" t="s">
         <v>2622</v>
       </c>
-      <c r="D1363" s="5" t="s">
+      <c r="D1363" s="7" t="s">
         <v>4107</v>
       </c>
     </row>
-    <row r="1364" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1364" s="16" t="s">
+    <row r="1364" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1364" s="17" t="s">
         <v>4108</v>
       </c>
-      <c r="B1364" s="4" t="s">
+      <c r="B1364" s="6" t="s">
         <v>4109</v>
       </c>
-      <c r="C1364" s="5" t="s">
+      <c r="C1364" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="D1364" s="5" t="s">
+      <c r="D1364" s="7" t="s">
         <v>4110</v>
       </c>
     </row>
-    <row r="1365" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1365" s="16" t="s">
+    <row r="1365" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1365" s="17" t="s">
         <v>4111</v>
       </c>
-      <c r="B1365" s="4" t="s">
+      <c r="B1365" s="6" t="s">
         <v>4112</v>
       </c>
-      <c r="C1365" s="5" t="s">
+      <c r="C1365" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D1365" s="5" t="s">
+      <c r="D1365" s="7" t="s">
         <v>4113</v>
       </c>
     </row>
-    <row r="1366" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1366" s="16" t="s">
+    <row r="1366" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1366" s="17" t="s">
         <v>4114</v>
       </c>
-      <c r="B1366" s="4" t="s">
+      <c r="B1366" s="6" t="s">
         <v>3108</v>
       </c>
-      <c r="C1366" s="5" t="s">
+      <c r="C1366" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="D1366" s="5" t="s">
+      <c r="D1366" s="7" t="s">
         <v>4115</v>
       </c>
     </row>
-    <row r="1367" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1367" s="16" t="s">
+    <row r="1367" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1367" s="17" t="s">
         <v>4116</v>
       </c>
-      <c r="B1367" s="4" t="s">
+      <c r="B1367" s="6" t="s">
         <v>2326</v>
       </c>
-      <c r="C1367" s="5" t="s">
+      <c r="C1367" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="D1367" s="5" t="s">
+      <c r="D1367" s="7" t="s">
         <v>4117</v>
       </c>
     </row>
-    <row r="1368" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1368" s="16" t="s">
+    <row r="1368" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1368" s="17" t="s">
         <v>4118</v>
       </c>
-      <c r="B1368" s="4" t="s">
+      <c r="B1368" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C1368" s="5" t="s">
+      <c r="C1368" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="D1368" s="5" t="s">
+      <c r="D1368" s="7" t="s">
         <v>4119</v>
       </c>
     </row>
-    <row r="1369" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1369" s="16" t="s">
+    <row r="1369" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1369" s="17" t="s">
         <v>4120</v>
       </c>
-      <c r="B1369" s="4" t="s">
+      <c r="B1369" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="C1369" s="5" t="s">
+      <c r="C1369" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="D1369" s="5" t="s">
+      <c r="D1369" s="7" t="s">
         <v>4121</v>
       </c>
     </row>
-    <row r="1370" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1370" s="16" t="s">
+    <row r="1370" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1370" s="17" t="s">
         <v>4122</v>
       </c>
-      <c r="B1370" s="4" t="s">
+      <c r="B1370" s="6" t="s">
         <v>2786</v>
       </c>
-      <c r="C1370" s="5" t="s">
+      <c r="C1370" s="7" t="s">
         <v>1999</v>
       </c>
-      <c r="D1370" s="5" t="s">
+      <c r="D1370" s="7" t="s">
         <v>4123</v>
       </c>
     </row>
-    <row r="1371" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1371" s="16" t="s">
+    <row r="1371" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1371" s="17" t="s">
         <v>4124</v>
       </c>
-      <c r="B1371" s="4" t="s">
+      <c r="B1371" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C1371" s="5" t="s">
+      <c r="C1371" s="7" t="s">
         <v>3255</v>
       </c>
-      <c r="D1371" s="5" t="s">
+      <c r="D1371" s="7" t="s">
         <v>3690</v>
       </c>
     </row>
-    <row r="1372" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1372" s="16" t="s">
+    <row r="1372" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1372" s="17" t="s">
         <v>4125</v>
       </c>
-      <c r="B1372" s="4" t="s">
+      <c r="B1372" s="6" t="s">
         <v>4126</v>
       </c>
-      <c r="C1372" s="5" t="s">
+      <c r="C1372" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D1372" s="5" t="s">
+      <c r="D1372" s="7" t="s">
         <v>4127</v>
       </c>
     </row>
-    <row r="1373" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1373" s="16" t="s">
+    <row r="1373" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1373" s="17" t="s">
         <v>4128</v>
       </c>
-      <c r="B1373" s="4" t="s">
+      <c r="B1373" s="6" t="s">
         <v>4129</v>
       </c>
-      <c r="C1373" s="5" t="s">
+      <c r="C1373" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D1373" s="5" t="s">
+      <c r="D1373" s="7" t="s">
         <v>4130</v>
       </c>
     </row>
-    <row r="1374" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1374" s="16" t="s">
+    <row r="1374" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1374" s="17" t="s">
         <v>4131</v>
       </c>
-      <c r="B1374" s="4" t="s">
+      <c r="B1374" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C1374" s="5" t="s">
+      <c r="C1374" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D1374" s="5" t="s">
+      <c r="D1374" s="7" t="s">
         <v>4132</v>
       </c>
     </row>
-    <row r="1375" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1375" s="16" t="s">
+    <row r="1375" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1375" s="17" t="s">
         <v>4133</v>
       </c>
-      <c r="B1375" s="4" t="s">
+      <c r="B1375" s="6" t="s">
         <v>4090</v>
       </c>
-      <c r="C1375" s="5" t="s">
+      <c r="C1375" s="7" t="s">
         <v>4091</v>
       </c>
-      <c r="D1375" s="5" t="s">
+      <c r="D1375" s="7" t="s">
         <v>4134</v>
       </c>
     </row>
-    <row r="1376" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1376" s="16" t="s">
+    <row r="1376" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1376" s="17" t="s">
         <v>4135</v>
       </c>
-      <c r="B1376" s="4" t="s">
+      <c r="B1376" s="6" t="s">
         <v>4037</v>
       </c>
-      <c r="C1376" s="5" t="s">
+      <c r="C1376" s="7" t="s">
         <v>1839</v>
       </c>
-      <c r="D1376" s="5" t="s">
+      <c r="D1376" s="7" t="s">
         <v>4136</v>
       </c>
     </row>
-    <row r="1377" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1377" s="16" t="s">
+    <row r="1377" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1377" s="17" t="s">
         <v>4137</v>
       </c>
-      <c r="B1377" s="4" t="s">
+      <c r="B1377" s="6" t="s">
         <v>4138</v>
       </c>
-      <c r="C1377" s="5" t="s">
+      <c r="C1377" s="7" t="s">
         <v>2926</v>
       </c>
-      <c r="D1377" s="5" t="s">
+      <c r="D1377" s="7" t="s">
         <v>4139</v>
       </c>
     </row>
-    <row r="1378" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1378" s="16" t="s">
+    <row r="1378" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1378" s="17" t="s">
         <v>4140</v>
       </c>
-      <c r="B1378" s="4" t="s">
+      <c r="B1378" s="6" t="s">
         <v>4141</v>
       </c>
-      <c r="C1378" s="5" t="s">
+      <c r="C1378" s="7" t="s">
         <v>3255</v>
       </c>
-      <c r="D1378" s="5" t="s">
+      <c r="D1378" s="7" t="s">
         <v>4142</v>
       </c>
     </row>
-    <row r="1379" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1379" s="16" t="s">
+    <row r="1379" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1379" s="17" t="s">
         <v>4143</v>
       </c>
-      <c r="B1379" s="4" t="s">
+      <c r="B1379" s="6" t="s">
         <v>2233</v>
       </c>
-      <c r="C1379" s="5" t="s">
+      <c r="C1379" s="7" t="s">
         <v>4144</v>
       </c>
-      <c r="D1379" s="5" t="s">
+      <c r="D1379" s="7" t="s">
         <v>4145</v>
       </c>
     </row>
-    <row r="1380" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1380" s="16" t="s">
+    <row r="1380" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1380" s="17" t="s">
         <v>4146</v>
       </c>
-      <c r="B1380" s="4" t="s">
+      <c r="B1380" s="6" t="s">
         <v>4147</v>
       </c>
-      <c r="C1380" s="5" t="s">
+      <c r="C1380" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D1380" s="5"/>
-    </row>
-    <row r="1381" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1381" s="16" t="s">
+      <c r="D1380" s="7"/>
+    </row>
+    <row r="1381" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1381" s="17" t="s">
         <v>4148</v>
       </c>
-      <c r="B1381" s="4" t="s">
+      <c r="B1381" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C1381" s="5" t="s">
+      <c r="C1381" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D1381" s="5" t="s">
+      <c r="D1381" s="7" t="s">
         <v>4149</v>
       </c>
     </row>
-    <row r="1382" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1382" s="16" t="s">
+    <row r="1382" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1382" s="17" t="s">
         <v>4150</v>
       </c>
-      <c r="B1382" s="4" t="s">
+      <c r="B1382" s="6" t="s">
         <v>4151</v>
       </c>
-      <c r="C1382" s="5" t="s">
+      <c r="C1382" s="7" t="s">
         <v>3758</v>
       </c>
-      <c r="D1382" s="5" t="s">
+      <c r="D1382" s="7" t="s">
         <v>4152</v>
       </c>
     </row>
-    <row r="1383" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1383" s="16" t="s">
+    <row r="1383" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1383" s="17" t="s">
         <v>4153</v>
       </c>
-      <c r="B1383" s="4" t="s">
+      <c r="B1383" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C1383" s="5" t="s">
+      <c r="C1383" s="7" t="s">
         <v>2149</v>
       </c>
-      <c r="D1383" s="5" t="s">
+      <c r="D1383" s="7" t="s">
         <v>4154</v>
       </c>
     </row>
-    <row r="1384" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1384" s="16" t="s">
+    <row r="1384" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1384" s="17" t="s">
         <v>4155</v>
       </c>
-      <c r="B1384" s="4" t="s">
+      <c r="B1384" s="6" t="s">
         <v>4156</v>
       </c>
-      <c r="C1384" s="5" t="s">
+      <c r="C1384" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D1384" s="5" t="s">
+      <c r="D1384" s="7" t="s">
         <v>2873</v>
       </c>
     </row>
-    <row r="1385" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1385" s="16" t="s">
+    <row r="1385" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1385" s="17" t="s">
         <v>4157</v>
       </c>
-      <c r="B1385" s="4" t="s">
+      <c r="B1385" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C1385" s="5" t="s">
+      <c r="C1385" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D1385" s="5"/>
-    </row>
-    <row r="1386" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1386" s="16" t="s">
+      <c r="D1385" s="7"/>
+    </row>
+    <row r="1386" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1386" s="17" t="s">
         <v>4158</v>
       </c>
-      <c r="B1386" s="4" t="s">
+      <c r="B1386" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C1386" s="5" t="s">
+      <c r="C1386" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="D1386" s="5" t="s">
+      <c r="D1386" s="7" t="s">
         <v>4159</v>
       </c>
     </row>
-    <row r="1387" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1387" s="16" t="s">
+    <row r="1387" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1387" s="17" t="s">
         <v>4160</v>
       </c>
-      <c r="B1387" s="4" t="s">
+      <c r="B1387" s="6" t="s">
         <v>4161</v>
       </c>
-      <c r="C1387" s="5" t="s">
+      <c r="C1387" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="D1387" s="5" t="s">
+      <c r="D1387" s="7" t="s">
         <v>4162</v>
       </c>
     </row>
-    <row r="1388" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1388" s="16" t="s">
+    <row r="1388" spans="1:4" s="11" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1388" s="17" t="s">
         <v>4163</v>
       </c>
-      <c r="B1388" s="4" t="s">
+      <c r="B1388" s="6" t="s">
         <v>1648</v>
       </c>
-      <c r="C1388" s="5" t="s">
+      <c r="C1388" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="D1388" s="5" t="s">
+      <c r="D1388" s="7" t="s">
         <v>4164</v>
       </c>
     </row>
-    <row r="1389" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1389" s="16" t="s">
+    <row r="1389" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1389" s="17" t="s">
         <v>4165</v>
       </c>
-      <c r="B1389" s="4" t="s">
+      <c r="B1389" s="6" t="s">
         <v>2758</v>
       </c>
-      <c r="C1389" s="5" t="s">
+      <c r="C1389" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D1389" s="5" t="s">
+      <c r="D1389" s="7" t="s">
         <v>4166</v>
       </c>
     </row>
-    <row r="1390" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1390" s="16" t="s">
+    <row r="1390" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1390" s="17" t="s">
         <v>4167</v>
       </c>
-      <c r="B1390" s="4" t="s">
+      <c r="B1390" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C1390" s="5" t="s">
+      <c r="C1390" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="D1390" s="5" t="s">
+      <c r="D1390" s="7" t="s">
         <v>4168</v>
       </c>
     </row>
-    <row r="1391" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1391" s="16" t="s">
+    <row r="1391" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1391" s="17" t="s">
         <v>4169</v>
       </c>
-      <c r="B1391" s="4" t="s">
+      <c r="B1391" s="6" t="s">
         <v>2718</v>
       </c>
-      <c r="C1391" s="5" t="s">
+      <c r="C1391" s="7" t="s">
         <v>4170</v>
       </c>
-      <c r="D1391" s="5" t="s">
+      <c r="D1391" s="7" t="s">
         <v>4171</v>
       </c>
     </row>
-    <row r="1392" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1392" s="16" t="s">
+    <row r="1392" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1392" s="17" t="s">
         <v>4172</v>
       </c>
-      <c r="B1392" s="4" t="s">
+      <c r="B1392" s="6" t="s">
         <v>3196</v>
       </c>
-      <c r="C1392" s="5" t="s">
+      <c r="C1392" s="7" t="s">
         <v>1974</v>
       </c>
-      <c r="D1392" s="5" t="s">
+      <c r="D1392" s="7" t="s">
         <v>4173</v>
       </c>
     </row>
-    <row r="1393" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1393" s="16" t="s">
+    <row r="1393" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1393" s="17" t="s">
         <v>4174</v>
       </c>
-      <c r="B1393" s="4" t="s">
+      <c r="B1393" s="6" t="s">
         <v>4175</v>
       </c>
-      <c r="C1393" s="5" t="s">
+      <c r="C1393" s="7" t="s">
         <v>1620</v>
       </c>
-      <c r="D1393" s="5" t="s">
+      <c r="D1393" s="7" t="s">
         <v>4176</v>
       </c>
     </row>
-    <row r="1394" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1394" s="16" t="s">
+    <row r="1394" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1394" s="17" t="s">
         <v>4177</v>
       </c>
-      <c r="B1394" s="4" t="s">
+      <c r="B1394" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C1394" s="5" t="s">
+      <c r="C1394" s="7" t="s">
         <v>4178</v>
       </c>
-      <c r="D1394" s="5" t="s">
+      <c r="D1394" s="7" t="s">
         <v>4179</v>
       </c>
     </row>
-    <row r="1395" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1395" s="16" t="s">
+    <row r="1395" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1395" s="17" t="s">
         <v>4180</v>
       </c>
-      <c r="B1395" s="4" t="s">
+      <c r="B1395" s="6" t="s">
         <v>2718</v>
       </c>
-      <c r="C1395" s="5" t="s">
+      <c r="C1395" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="D1395" s="5" t="s">
+      <c r="D1395" s="7" t="s">
         <v>4181</v>
       </c>
     </row>
-    <row r="1396" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1396" s="16" t="s">
+    <row r="1396" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1396" s="17" t="s">
         <v>4182</v>
       </c>
-      <c r="B1396" s="4" t="s">
+      <c r="B1396" s="6" t="s">
         <v>3438</v>
       </c>
-      <c r="C1396" s="5" t="s">
+      <c r="C1396" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D1396" s="5" t="s">
+      <c r="D1396" s="7" t="s">
         <v>4183</v>
       </c>
     </row>
-    <row r="1397" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1397" s="16" t="s">
+    <row r="1397" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1397" s="17" t="s">
         <v>4184</v>
       </c>
-      <c r="B1397" s="4" t="s">
+      <c r="B1397" s="6" t="s">
         <v>4185</v>
       </c>
-      <c r="C1397" s="5" t="s">
+      <c r="C1397" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="D1397" s="5" t="s">
+      <c r="D1397" s="7" t="s">
         <v>3788</v>
       </c>
     </row>
-    <row r="1398" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1398" s="16" t="s">
+    <row r="1398" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1398" s="17" t="s">
         <v>4186</v>
       </c>
-      <c r="B1398" s="4" t="s">
+      <c r="B1398" s="6" t="s">
         <v>4187</v>
       </c>
-      <c r="C1398" s="5" t="s">
+      <c r="C1398" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D1398" s="5" t="s">
+      <c r="D1398" s="7" t="s">
         <v>4188</v>
       </c>
     </row>
-    <row r="1399" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1399" s="16" t="s">
+    <row r="1399" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1399" s="17" t="s">
         <v>4189</v>
       </c>
-      <c r="B1399" s="4" t="s">
+      <c r="B1399" s="6" t="s">
         <v>1291</v>
       </c>
-      <c r="C1399" s="5" t="s">
+      <c r="C1399" s="7" t="s">
         <v>2189</v>
       </c>
-      <c r="D1399" s="5" t="s">
+      <c r="D1399" s="7" t="s">
         <v>4190</v>
       </c>
     </row>
-    <row r="1400" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1400" s="16" t="s">
+    <row r="1400" spans="1:4" s="11" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1400" s="17" t="s">
         <v>4191</v>
       </c>
-      <c r="B1400" s="4" t="s">
+      <c r="B1400" s="6" t="s">
         <v>3725</v>
       </c>
-      <c r="C1400" s="5" t="s">
+      <c r="C1400" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D1400" s="5" t="s">
+      <c r="D1400" s="7" t="s">
         <v>4192</v>
       </c>
     </row>
